--- a/data/trans_orig/Q31A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.73231951529601</v>
+        <v>15.7341221288359</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.95979498851894</v>
+        <v>15.94360819057791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.94967171882717</v>
+        <v>15.94885981944054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.05680763460009</v>
+        <v>16.02006297393273</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.26167483970843</v>
+        <v>16.2307224799683</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.99124059999988</v>
+        <v>15.9998430352369</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.23481274750457</v>
+        <v>16.25388761775805</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>15.9089718855813</v>
+        <v>15.91030042964883</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>15.98967076906579</v>
+        <v>15.98545110752461</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.03193199833657</v>
+        <v>16.03526827182493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.12665643155148</v>
+        <v>16.1207505146806</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.10518621200297</v>
+        <v>16.11955407628807</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.159082942503</v>
+        <v>16.14286739130512</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.33568848198528</v>
+        <v>16.34662132396204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.32842903224076</v>
+        <v>16.30055634058559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.68115316774447</v>
+        <v>16.66802196497364</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.69839880078402</v>
+        <v>16.65766511878064</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.46718595464838</v>
+        <v>16.47254853645348</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.71476660559006</v>
+        <v>16.70171034513592</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.84061584025852</v>
+        <v>16.83150207335614</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.28286852107414</v>
+        <v>16.28380129642962</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16.32736040210197</v>
+        <v>16.3241622407009</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.41572894306735</v>
+        <v>16.41743738167579</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.61857722006697</v>
+        <v>16.64029530042514</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>16.84688264210989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.78912172454928</v>
+        <v>16.78912172454929</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>17.42424406400911</v>
@@ -817,7 +817,7 @@
         <v>17.46272005319928</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>16.91604855484308</v>
+        <v>16.91604855484307</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>17.05217434036879</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.72610300476427</v>
+        <v>16.72667652078543</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.79666663573435</v>
+        <v>16.79437469644885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.66343035207114</v>
+        <v>16.65022076592673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.52052618734178</v>
+        <v>16.54187427442458</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.18923351406422</v>
+        <v>17.21089648986765</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.20955900220873</v>
+        <v>17.19207886794458</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.17041287991503</v>
+        <v>17.17125542224105</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.6009406590581</v>
+        <v>16.59469363429452</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.91130081566218</v>
+        <v>16.91913128483395</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.00472481742659</v>
+        <v>16.99954197018177</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.92398533749326</v>
+        <v>16.93162838061382</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.62825768262442</v>
+        <v>16.64254396980746</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.04640709400472</v>
+        <v>17.04511413174697</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.22178626486084</v>
+        <v>17.21142884937855</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.04121735951838</v>
+        <v>17.04012163353288</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.05528316034119</v>
+        <v>17.07508385110949</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.63805484181241</v>
+        <v>17.65115293659886</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.88465936945816</v>
+        <v>17.8383186454804</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.88486714223739</v>
+        <v>17.84441771028987</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.30439484400318</v>
+        <v>17.30852800656916</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.1831475025603</v>
+        <v>17.19258833755766</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.3284049304443</v>
+        <v>17.34669897915205</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.26864783743677</v>
+        <v>17.26826123175986</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.05561193785658</v>
+        <v>17.07728029247864</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.99673203017977</v>
+        <v>17.00681827628695</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.07039819559961</v>
+        <v>17.07839879002822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.85448726378278</v>
+        <v>16.86772444777951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.95352332110969</v>
+        <v>16.96561604926559</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.99279866853529</v>
+        <v>17.98831876091823</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.34482777971214</v>
+        <v>18.34209702403395</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.56127985963503</v>
+        <v>17.56971446094056</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.99264047346493</v>
+        <v>17.94847471377884</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.40533644165327</v>
+        <v>17.41455934136545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.60448647449677</v>
+        <v>17.6165038672803</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.20088848864502</v>
+        <v>17.18212551308514</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.40184700790888</v>
+        <v>17.38703418235104</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.35208126352841</v>
+        <v>17.36399105529129</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.47312865723277</v>
+        <v>17.49983990308911</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.34322508064463</v>
+        <v>17.3495288291154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.55389645228565</v>
+        <v>17.55589161223357</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.76505192903344</v>
+        <v>18.87615608170507</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.14093753141638</v>
+        <v>19.12593967672354</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.36962029770253</v>
+        <v>18.3837090750689</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.93498233946367</v>
+        <v>18.9231048121219</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.78486300633208</v>
+        <v>17.78227703084975</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.03265209254342</v>
+        <v>18.01813736612975</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.63105432831903</v>
+        <v>17.61131996689629</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.91742176894475</v>
+        <v>17.89650610315441</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.19176976211125</v>
+        <v>17.16627591465437</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.48469465966879</v>
+        <v>17.47499176201094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.99369844666368</v>
+        <v>17.004244081682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.95907252384715</v>
+        <v>16.94230216926426</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>18.9798328848186</v>
+        <v>18.95457656170903</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.9385403166773</v>
+        <v>18.92492037989033</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>18.61009397567055</v>
+        <v>18.66455473745796</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.3878469882932</v>
+        <v>18.36873185755356</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.81267217045967</v>
+        <v>17.80797642993773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18.08372264313786</v>
+        <v>18.10541059685201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.75773504425715</v>
+        <v>17.74259931444234</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.56555985040452</v>
+        <v>17.57500095061309</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.59209949382899</v>
+        <v>17.60591381938939</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.08721343034489</v>
+        <v>18.09581891274414</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.52505441416834</v>
+        <v>17.5599594984201</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.56760183537673</v>
+        <v>17.56884281267781</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>20.0780890706365</v>
+        <v>20.03822570128007</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>20.18214121672555</v>
+        <v>20.21982758513265</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>19.80755770743848</v>
+        <v>19.80377825031868</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>19.58770245381735</v>
+        <v>19.60440523072858</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>18.32061940111639</v>
+        <v>18.2855409490053</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.69266077978036</v>
+        <v>18.6974137257014</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18.35259380280117</v>
+        <v>18.33831246092846</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.13250370530114</v>
+        <v>18.14287779517313</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>17.32148644415024</v>
+        <v>17.34756657970623</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.52711042505669</v>
+        <v>17.50573593466367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.70036008685493</v>
+        <v>16.75914713089763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.13957590533872</v>
+        <v>17.14645616738543</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>19.18963688656618</v>
+        <v>19.20292734158081</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>19.86424882077919</v>
+        <v>19.81032704983608</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>19.37117440768478</v>
+        <v>19.36133575209992</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>19.38342600077551</v>
+        <v>19.40164128043286</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.97130142745224</v>
+        <v>17.96279027857859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18.42838736977068</v>
+        <v>18.39575977220502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.68977339105066</v>
+        <v>17.70217612667632</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>18.05390317924392</v>
+        <v>18.03466991272338</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.96709215564295</v>
+        <v>17.98251602539108</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.96816003024176</v>
+        <v>18.96006939240951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.33614509458219</v>
+        <v>17.39894812151834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.96628850146236</v>
+        <v>17.94982725973338</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>20.76132938627809</v>
+        <v>20.78622523488358</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.4935830994363</v>
+        <v>22.37811507797888</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>21.6666534955831</v>
+        <v>21.69460300015761</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>21.23322716014695</v>
+        <v>21.26127847159045</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.65293741824076</v>
+        <v>18.65782915049072</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19.61792573485773</v>
+        <v>19.68114010785894</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18.58607971263222</v>
+        <v>18.63757571832562</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>18.93027074502922</v>
+        <v>18.92915963353374</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>17.73779465125452</v>
+        <v>17.70714909970468</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>17.53234038119221</v>
+        <v>17.50313905604694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.87976954718001</v>
+        <v>16.89142919362479</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.84543246334006</v>
+        <v>16.86251993550077</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>18.54368205129018</v>
+        <v>18.60313843644293</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.77733518445472</v>
+        <v>20.89650331774338</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>20.61402198022949</v>
+        <v>20.84149960940453</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>19.95434927779224</v>
+        <v>20.07137091894943</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>17.99981982205621</v>
+        <v>18.00116350802875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18.62532245904483</v>
+        <v>18.62264312469294</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18.13685477211687</v>
+        <v>18.07301162103357</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>17.8266037014888</v>
+        <v>17.80503951950834</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.74194855414368</v>
+        <v>18.75187547602216</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.50264408817192</v>
+        <v>18.53338131640551</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.21627301673101</v>
+        <v>18.13018144964015</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.44384819515891</v>
+        <v>17.47004259061235</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>20.3539202005503</v>
+        <v>20.33619893033116</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>25.68658255796667</v>
+        <v>25.50161542692161</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>27.20711478670923</v>
+        <v>26.90988591689007</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>22.88428071472582</v>
+        <v>23.28070603541191</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>18.93115467230917</v>
+        <v>18.93232655976048</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20.20705932936451</v>
+        <v>20.18536722116303</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20.11149787211453</v>
+        <v>20.09040492685051</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>18.81633711709321</v>
+        <v>18.78009629812844</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>23.17334076087235</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>20.30096610206765</v>
+        <v>20.30096610206764</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>18.97057363025095</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>17.33817041144008</v>
+        <v>17.39290247978641</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.4405339237358</v>
+        <v>17.49815175351394</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17.12299279843194</v>
+        <v>17.0577747564446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.28392113941235</v>
+        <v>17.29532955331166</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>20.42479037006488</v>
+        <v>20.35416501517527</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.04209898720707</v>
+        <v>21.06315368930372</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>19.76012421131585</v>
+        <v>19.96244619398567</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>18.87686940807498</v>
+        <v>18.98361306793932</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>18.20238601928021</v>
+        <v>18.08520038283482</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18.66093232883423</v>
+        <v>18.60182491632717</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18.048991574518</v>
+        <v>18.10941733915809</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>17.8381026012576</v>
+        <v>17.8142809557929</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.75706177842689</v>
+        <v>18.76136150926309</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.18428658056434</v>
+        <v>21.51359548258987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.77024063564388</v>
+        <v>18.67097315556668</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.14317805492172</v>
+        <v>19.25718887085754</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>29.17672774724575</v>
+        <v>28.6652904998928</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.65868905418028</v>
+        <v>33.54330824229598</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>30.5950232495457</v>
+        <v>30.51970059592621</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>21.72220964524273</v>
+        <v>21.8638196706685</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.31658629213825</v>
+        <v>20.19811886938338</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22.78647672586267</v>
+        <v>22.80882630175864</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21.14934343790463</v>
+        <v>20.96141610232588</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>19.5604581580726</v>
+        <v>19.4645209505322</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.99738413028112</v>
+        <v>17.00706830722363</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>17.20970494429952</v>
+        <v>17.20576826460958</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16.90367256688751</v>
+        <v>16.8910456453928</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17.01298376151652</v>
+        <v>17.01348691422168</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>17.9558959599669</v>
+        <v>17.96163594754342</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>18.47890822631722</v>
+        <v>18.48204350943911</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>18.3111149466908</v>
+        <v>18.28585178832655</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>18.30622293241267</v>
+        <v>18.32552046061739</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>17.34422959991226</v>
+        <v>17.33793153318165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17.68543892522453</v>
+        <v>17.6780966091437</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17.45782610883382</v>
+        <v>17.45420755918813</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>17.51869044155505</v>
+        <v>17.51756640449765</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.18860889758249</v>
+        <v>17.18604502311667</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>17.51422928935539</v>
+        <v>17.50446619461034</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17.13931294759731</v>
+        <v>17.11728333904295</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.28258246836198</v>
+        <v>17.30055761715573</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>18.358496126549</v>
+        <v>18.37166508184007</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>19.08864929541616</v>
+        <v>19.082613755688</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>18.97489860655466</v>
+        <v>18.93350576770444</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>18.91349900112731</v>
+        <v>18.93844027885774</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.52766453184896</v>
+        <v>17.53121100284934</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17.98025853966445</v>
+        <v>17.95945523995308</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17.7318986408882</v>
+        <v>17.73491586983536</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>17.79954220432675</v>
+        <v>17.79705398957806</v>
       </c>
     </row>
     <row r="28">
